--- a/TPO_READING.xlsx
+++ b/TPO_READING.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="11400" tabRatio="500"/>
+    <workbookView windowWidth="24800" windowHeight="11320" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,12 +14,18 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4">
   <si>
     <t>TPO READING</t>
   </si>
   <si>
     <t>DONE</t>
+  </si>
+  <si>
+    <t>Supplement</t>
+  </si>
+  <si>
+    <t>Status</t>
   </si>
 </sst>
 </file>
@@ -27,12 +33,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="21">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -41,45 +47,107 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="20"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -93,30 +161,20 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
@@ -132,74 +190,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="34">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -214,12 +213,168 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -232,169 +387,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -423,25 +428,21 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -477,13 +478,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -506,8 +511,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -515,166 +520,178 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="10" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="176" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -995,229 +1012,361 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:B35"/>
+  <dimension ref="A1:D35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.8" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.8" outlineLevelCol="3"/>
   <cols>
     <col min="1" max="1" width="22.5" style="1" customWidth="1"/>
     <col min="2" max="2" width="15.8308823529412" style="1" customWidth="1"/>
+    <col min="3" max="3" width="14.9485294117647" customWidth="1"/>
+    <col min="4" max="4" width="12.9852941176471" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="24.4" spans="1:2">
+    <row r="1" spans="1:4">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" ht="24.4" spans="1:2">
+      <c r="C1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
       <c r="A2" s="2">
         <v>1</v>
       </c>
-      <c r="B2" s="2"/>
-    </row>
-    <row r="3" ht="24.4" spans="1:2">
+      <c r="B2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="5">
+        <v>1.1</v>
+      </c>
+      <c r="D2" s="6"/>
+    </row>
+    <row r="3" spans="1:4">
       <c r="A3" s="2">
         <v>2</v>
       </c>
-      <c r="B3" s="2"/>
-    </row>
-    <row r="4" ht="24.4" spans="1:2">
+      <c r="B3" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="5">
+        <v>1.2</v>
+      </c>
+      <c r="D3" s="6"/>
+    </row>
+    <row r="4" spans="1:4">
       <c r="A4" s="2">
         <v>3</v>
       </c>
-      <c r="B4" s="2"/>
-    </row>
-    <row r="5" ht="24.4" spans="1:2">
+      <c r="B4" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="5">
+        <v>2.1</v>
+      </c>
+      <c r="D4" s="6"/>
+    </row>
+    <row r="5" spans="1:4">
       <c r="A5" s="2">
         <v>4</v>
       </c>
-      <c r="B5" s="2"/>
-    </row>
-    <row r="6" ht="24.4" spans="1:2">
+      <c r="B5" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5" s="5">
+        <v>2.2</v>
+      </c>
+      <c r="D5" s="6"/>
+    </row>
+    <row r="6" spans="1:4">
       <c r="A6" s="2">
         <v>5</v>
       </c>
-      <c r="B6" s="2"/>
-    </row>
-    <row r="7" ht="24.4" spans="1:2">
+      <c r="B6" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C6" s="5">
+        <v>3.1</v>
+      </c>
+      <c r="D6" s="6"/>
+    </row>
+    <row r="7" spans="1:4">
       <c r="A7" s="2">
         <v>6</v>
       </c>
-      <c r="B7" s="2"/>
-    </row>
-    <row r="8" ht="24.4" spans="1:2">
+      <c r="B7" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C7" s="5">
+        <v>3.2</v>
+      </c>
+      <c r="D7" s="6"/>
+    </row>
+    <row r="8" spans="1:4">
       <c r="A8" s="2">
         <v>7</v>
       </c>
-      <c r="B8" s="2"/>
-    </row>
-    <row r="9" ht="24.4" spans="1:2">
+      <c r="B8" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C8" s="5">
+        <v>4</v>
+      </c>
+      <c r="D8" s="6"/>
+    </row>
+    <row r="9" spans="1:4">
       <c r="A9" s="2">
         <v>8</v>
       </c>
-      <c r="B9" s="2"/>
-    </row>
-    <row r="10" ht="24.4" spans="1:2">
+      <c r="B9" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C9" s="5">
+        <v>5</v>
+      </c>
+      <c r="D9" s="6"/>
+    </row>
+    <row r="10" spans="1:4">
       <c r="A10" s="2">
         <v>9</v>
       </c>
-      <c r="B10" s="2"/>
-    </row>
-    <row r="11" ht="24.4" spans="1:2">
+      <c r="B10" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C10" s="5">
+        <v>6</v>
+      </c>
+      <c r="D10" s="6"/>
+    </row>
+    <row r="11" spans="1:4">
       <c r="A11" s="2">
         <v>10</v>
       </c>
-      <c r="B11" s="2"/>
-    </row>
-    <row r="12" ht="24.4" spans="1:2">
+      <c r="B11" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C11" s="5">
+        <v>7</v>
+      </c>
+      <c r="D11" s="6"/>
+    </row>
+    <row r="12" spans="1:4">
       <c r="A12" s="2">
         <v>11</v>
       </c>
-      <c r="B12" s="2"/>
-    </row>
-    <row r="13" ht="24.4" spans="1:2">
+      <c r="B12" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C12" s="5">
+        <v>8</v>
+      </c>
+      <c r="D12" s="6"/>
+    </row>
+    <row r="13" spans="1:4">
       <c r="A13" s="2">
         <v>12</v>
       </c>
-      <c r="B13" s="2"/>
-    </row>
-    <row r="14" ht="24.4" spans="1:2">
+      <c r="B13" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C13" s="5">
+        <v>9</v>
+      </c>
+      <c r="D13" s="6"/>
+    </row>
+    <row r="14" spans="1:4">
       <c r="A14" s="2">
         <v>13</v>
       </c>
-      <c r="B14" s="2"/>
-    </row>
-    <row r="15" ht="24.4" spans="1:2">
+      <c r="B14" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C14" s="5">
+        <v>10</v>
+      </c>
+      <c r="D14" s="6"/>
+    </row>
+    <row r="15" spans="1:4">
       <c r="A15" s="2">
         <v>14</v>
       </c>
-      <c r="B15" s="2"/>
-    </row>
-    <row r="16" ht="24.4" spans="1:2">
+      <c r="B15" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C15" s="5">
+        <v>11</v>
+      </c>
+      <c r="D15" s="6"/>
+    </row>
+    <row r="16" spans="1:2">
       <c r="A16" s="2">
         <v>15</v>
       </c>
-      <c r="B16" s="2"/>
-    </row>
-    <row r="17" ht="24.4" spans="1:2">
+      <c r="B16" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
       <c r="A17" s="2">
         <v>16</v>
       </c>
-      <c r="B17" s="2"/>
-    </row>
-    <row r="18" ht="24.4" spans="1:2">
+      <c r="B17" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
       <c r="A18" s="2">
         <v>17</v>
       </c>
-      <c r="B18" s="2"/>
-    </row>
-    <row r="19" ht="24.4" spans="1:2">
+      <c r="B18" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
       <c r="A19" s="2">
         <v>18</v>
       </c>
-      <c r="B19" s="2"/>
-    </row>
-    <row r="20" ht="24.4" spans="1:2">
+      <c r="B19" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
       <c r="A20" s="2">
         <v>19</v>
       </c>
-      <c r="B20" s="2"/>
-    </row>
-    <row r="21" ht="24.4" spans="1:2">
+      <c r="B20" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
       <c r="A21" s="2">
         <v>20</v>
       </c>
-      <c r="B21" s="2"/>
-    </row>
-    <row r="22" ht="24.4" spans="1:2">
+      <c r="B21" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
       <c r="A22" s="2">
         <v>21</v>
       </c>
-      <c r="B22" s="2"/>
-    </row>
-    <row r="23" ht="24.4" spans="1:2">
+      <c r="B22" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
       <c r="A23" s="2">
         <v>22</v>
       </c>
-      <c r="B23" s="2"/>
-    </row>
-    <row r="24" ht="24.4" spans="1:2">
+      <c r="B23" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
       <c r="A24" s="2">
         <v>23</v>
       </c>
-      <c r="B24" s="2"/>
-    </row>
-    <row r="25" ht="24.4" spans="1:2">
+      <c r="B24" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
       <c r="A25" s="2">
         <v>24</v>
       </c>
-      <c r="B25" s="2"/>
-    </row>
-    <row r="26" ht="24.4" spans="1:2">
+      <c r="B25" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2">
       <c r="A26" s="2">
         <v>25</v>
       </c>
-      <c r="B26" s="2"/>
-    </row>
-    <row r="27" ht="24.4" spans="1:2">
+      <c r="B26" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2">
       <c r="A27" s="2">
         <v>26</v>
       </c>
-      <c r="B27" s="2"/>
-    </row>
-    <row r="28" ht="24.4" spans="1:2">
+      <c r="B27" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2">
       <c r="A28" s="2">
         <v>27</v>
       </c>
-      <c r="B28" s="2"/>
-    </row>
-    <row r="29" ht="24.4" spans="1:2">
+      <c r="B28" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2">
       <c r="A29" s="2">
         <v>28</v>
       </c>
-      <c r="B29" s="2"/>
-    </row>
-    <row r="30" ht="24.4" spans="1:2">
+      <c r="B29" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2">
       <c r="A30" s="2">
         <v>29</v>
       </c>
-      <c r="B30" s="2"/>
-    </row>
-    <row r="31" ht="24.4" spans="1:2">
+      <c r="B30" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2">
       <c r="A31" s="2">
         <v>30</v>
       </c>
-      <c r="B31" s="2"/>
-    </row>
-    <row r="32" ht="24.4" spans="1:2">
+      <c r="B31" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2">
       <c r="A32" s="2">
         <v>31</v>
       </c>
-      <c r="B32" s="2"/>
-    </row>
-    <row r="33" ht="24.4" spans="1:2">
+      <c r="B32" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2">
       <c r="A33" s="2">
         <v>32</v>
       </c>
-      <c r="B33" s="2"/>
-    </row>
-    <row r="34" ht="24.4" spans="1:2">
+      <c r="B33" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2">
       <c r="A34" s="2">
         <v>33</v>
       </c>
-      <c r="B34" s="2"/>
-    </row>
-    <row r="35" ht="24.4" spans="1:2">
+      <c r="B34" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2">
       <c r="A35" s="2">
         <v>34</v>
       </c>
-      <c r="B35" s="2"/>
+      <c r="B35" s="2" t="s">
+        <v>1</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/TPO_READING.xlsx
+++ b/TPO_READING.xlsx
@@ -34,9 +34,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -56,22 +56,67 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -85,6 +130,7 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -92,9 +138,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -105,51 +150,6 @@
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -162,37 +162,37 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -219,19 +219,121 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -243,19 +345,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -267,139 +375,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -432,33 +432,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
         <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -493,6 +467,50 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -507,166 +525,148 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="24" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="29" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1015,7 +1015,7 @@
   <dimension ref="A1:D35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.8" outlineLevelCol="3"/>
@@ -1047,10 +1047,10 @@
       <c r="B2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="5">
+      <c r="C2" s="3">
         <v>1.1</v>
       </c>
-      <c r="D2" s="6"/>
+      <c r="D2" s="4"/>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="2">

--- a/TPO_READING.xlsx
+++ b/TPO_READING.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="24800" windowHeight="11320" tabRatio="500"/>
+    <workbookView windowWidth="22400" windowHeight="11380" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,9 +34,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -47,8 +47,83 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
       <color rgb="FF0000FF"/>
       <name val="Calibri"/>
       <charset val="0"/>
@@ -56,19 +131,50 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -84,115 +190,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -207,7 +207,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF00B050"/>
+        <fgColor theme="5" tint="-0.25"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -219,187 +219,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -428,11 +428,41 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -452,17 +482,35 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="double">
+      <right style="thin">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="double">
+      <top style="thin">
         <color rgb="FF3F3F3F"/>
       </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -477,199 +525,151 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="24" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="29" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1015,7 +1015,7 @@
   <dimension ref="A1:D35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.8" outlineLevelCol="3"/>
@@ -1059,10 +1059,10 @@
       <c r="B3" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="5">
+      <c r="C3" s="3">
         <v>1.2</v>
       </c>
-      <c r="D3" s="6"/>
+      <c r="D3" s="4"/>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="2">
@@ -1071,10 +1071,10 @@
       <c r="B4" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="5">
+      <c r="C4" s="3">
         <v>2.1</v>
       </c>
-      <c r="D4" s="6"/>
+      <c r="D4" s="4"/>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="2">
@@ -1083,10 +1083,10 @@
       <c r="B5" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="5">
+      <c r="C5" s="3">
         <v>2.2</v>
       </c>
-      <c r="D5" s="6"/>
+      <c r="D5" s="4"/>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="2">
@@ -1095,10 +1095,10 @@
       <c r="B6" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C6" s="5">
+      <c r="C6" s="3">
         <v>3.1</v>
       </c>
-      <c r="D6" s="6"/>
+      <c r="D6" s="4"/>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="2">
@@ -1107,10 +1107,10 @@
       <c r="B7" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C7" s="5">
+      <c r="C7" s="3">
         <v>3.2</v>
       </c>
-      <c r="D7" s="6"/>
+      <c r="D7" s="4"/>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="2">
@@ -1119,10 +1119,10 @@
       <c r="B8" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C8" s="5">
+      <c r="C8" s="3">
         <v>4</v>
       </c>
-      <c r="D8" s="6"/>
+      <c r="D8" s="4"/>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="2">
@@ -1196,17 +1196,13 @@
       </c>
       <c r="D14" s="6"/>
     </row>
-    <row r="15" spans="1:4">
+    <row r="15" spans="1:2">
       <c r="A15" s="2">
         <v>14</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C15" s="5">
-        <v>11</v>
-      </c>
-      <c r="D15" s="6"/>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="2">

--- a/TPO_READING.xlsx
+++ b/TPO_READING.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22400" windowHeight="11380" tabRatio="500"/>
+    <workbookView windowWidth="28800" windowHeight="11380" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,8 +35,8 @@
   <numFmts count="4">
     <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -47,6 +47,45 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -54,19 +93,41 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -79,7 +140,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -92,107 +153,46 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -219,79 +219,157 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -303,103 +381,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -428,6 +428,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -447,7 +456,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -482,6 +491,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -499,24 +517,6 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -528,148 +528,148 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="28" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1015,7 +1015,7 @@
   <dimension ref="A1:D35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+      <selection activeCell="C10" sqref="C10:D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.8" outlineLevelCol="3"/>
@@ -1131,10 +1131,10 @@
       <c r="B9" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C9" s="5">
+      <c r="C9" s="3">
         <v>5</v>
       </c>
-      <c r="D9" s="6"/>
+      <c r="D9" s="4"/>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="2">
